--- a/02_Inventory/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/02_Inventory/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VVSS\VVSS-Inventory\02_Inventory\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\VVSS\VVSS-Inventory\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082B333-6501-4B9E-9108-B774A6C7D402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FF409-BACA-4E14-8F56-B3819E74A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
     <t>R01</t>
   </si>
   <si>
@@ -501,6 +498,9 @@
   </si>
   <si>
     <t>Am creat obiectul in controller cu toate atributele sale si apoi am inlocuit acei parametri cu obiectul.</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours): 1h</t>
   </si>
 </sst>
 </file>
@@ -764,6 +764,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -806,7 +807,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,19 +1137,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1163,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="22">
         <v>235</v>
@@ -1173,15 +1173,15 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>235</v>
@@ -1191,10 +1191,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1206,15 +1206,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1235,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1250,13 +1250,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1265,13 +1265,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1280,11 +1280,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,11 +1293,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1306,11 +1306,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1319,11 +1319,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1332,11 +1332,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1345,11 +1345,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1358,13 +1358,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1373,13 +1373,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -1388,13 +1388,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1463,8 +1463,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,19 +1483,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1509,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="17">
         <v>235</v>
@@ -1519,15 +1519,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>235</v>
@@ -1537,10 +1537,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1552,15 +1552,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1581,11 +1581,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1594,11 +1594,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1607,11 +1607,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1620,11 +1620,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1633,11 +1633,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1646,11 +1646,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1659,11 +1659,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -1672,11 +1672,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1685,11 +1685,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1698,11 +1698,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1711,11 +1711,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1802,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1823,19 +1823,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1849,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="17">
         <v>235</v>
@@ -1859,15 +1859,15 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3">
         <v>235</v>
@@ -1877,10 +1877,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1892,15 +1892,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1936,13 +1936,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1951,11 +1951,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1964,11 +1964,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1977,11 +1977,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1990,11 +1990,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,11 +2003,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -2016,11 +2016,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2029,11 +2029,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -2042,11 +2042,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -2055,11 +2055,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -2068,11 +2068,11 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="41" t="s">
-        <v>149</v>
+      <c r="E21" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -2081,11 +2081,11 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +2190,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,19 +2212,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -2238,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="17">
         <v>235</v>
@@ -2248,13 +2248,13 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3">
         <v>235</v>
@@ -2264,8 +2264,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2277,8 +2277,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2303,16 +2303,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2321,16 +2321,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2339,16 +2339,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2357,16 +2357,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2375,16 +2375,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2393,16 +2393,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -2411,16 +2411,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -2429,16 +2429,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -2447,16 +2447,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -2465,16 +2465,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -2483,16 +2483,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="105" x14ac:dyDescent="0.25">
@@ -2501,16 +2501,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2604,11 +2604,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">

--- a/02_Inventory/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/02_Inventory/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\VVSS\VVSS-Inventory\02_Inventory\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VVSS\VVSS-Inventory\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FF409-BACA-4E14-8F56-B3819E74A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF05EF2B-74AF-44F8-A8DC-A7E0ABD4C317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -167,30 +167,12 @@
     <t>R02</t>
   </si>
   <si>
-    <t>R03</t>
-  </si>
-  <si>
-    <t>Nu am identificat functionalitati incorecte.</t>
-  </si>
-  <si>
     <t>R04</t>
   </si>
   <si>
     <t>Initializarea sistemului nu a fost luata in considerare.</t>
   </si>
   <si>
-    <t>R05</t>
-  </si>
-  <si>
-    <t>Funtionalitatile au fost definite adecvat.</t>
-  </si>
-  <si>
-    <t>R06</t>
-  </si>
-  <si>
-    <t>Cerintele utilizatorului sunt definite adecvat.</t>
-  </si>
-  <si>
     <t>R07</t>
   </si>
   <si>
@@ -206,72 +188,30 @@
     <t>Nu este definit comportamentul aplicatiei atunci cand se sterge o piesa care apare printre lista de piese componente ale unui produs.</t>
   </si>
   <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
     <t>A05</t>
   </si>
   <si>
     <t>A06</t>
   </si>
   <si>
-    <t>A07</t>
-  </si>
-  <si>
     <t>A08</t>
   </si>
   <si>
-    <t>A09</t>
-  </si>
-  <si>
-    <t>Organizarea programului este clara.</t>
-  </si>
-  <si>
-    <t>Partitionarea si stratificarea este consistenta.</t>
-  </si>
-  <si>
     <t>20 min</t>
   </si>
   <si>
-    <t>Arhitectura acopera toate cerintele programului.</t>
-  </si>
-  <si>
-    <t>Fiecare subsistem (controllers / inventory service / etc) este sustinut de clase relevante care gestioneaza cerintele acelui subsistem (modificare, adaugare in inventar, etc).</t>
-  </si>
-  <si>
     <t>Din diagrama nu reiese ca ar exista vreo strategie de gestionare a erorilor.</t>
   </si>
   <si>
     <t>MVC a fost luat in cosiderare. Alte design patterns care ar putea fi folosite ar fi Factory pentru crearea de produse si piese si Singleton pentru gestionarea instantelor (service, repo).</t>
   </si>
   <si>
-    <t>Numele si descrierea claselor sunt sugestive pentru scopul pe care il au si reflecta clar rolul acestora.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clasa Product are o metoda denumita isValidProduct(...) care mai degraba ar fi definita intr-o clasa ProductValidator intruct se incalca Single Responsability Principle. </t>
   </si>
   <si>
     <t>Clasa Part are o metoda isValidPart(...) care ar trebui definita intr-o clasa separata intrucat se incalca SRP.</t>
   </si>
   <si>
-    <t>Relatiile de agregare si asociere intre clase sunt denumite corect.</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>Clasele de enititati si relatiile sale sunt consistente in raport cu modelele si cerintele.</t>
-  </si>
-  <si>
     <t>Mursa Vlad Ovidiu</t>
   </si>
   <si>
@@ -281,30 +221,9 @@
     <t>C01</t>
   </si>
   <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
     <t>C04</t>
   </si>
   <si>
-    <t>C05</t>
-  </si>
-  <si>
-    <t>C06</t>
-  </si>
-  <si>
-    <t>C07</t>
-  </si>
-  <si>
-    <t>C08</t>
-  </si>
-  <si>
-    <t>C09</t>
-  </si>
-  <si>
     <t>MainScreenController.java (handleDeleteProduct &amp; handleDeletePart methods)</t>
   </si>
   <si>
@@ -317,36 +236,9 @@
     <t>Nu se verifica daca utilizatorul a selectat in prealabil un anumit produs / o anumita piesa din tabelul corespunzator inainte de a apasa butonul 'delete'.</t>
   </si>
   <si>
-    <t>Nu</t>
-  </si>
-  <si>
-    <t>Nu exista astfel de bucle</t>
-  </si>
-  <si>
     <t>Nu se verifica daca fisierul din care se citeste si se scrie exista ceea ce duce la aruncarea unei exceptii.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nu sunt </t>
-  </si>
-  <si>
-    <t>Nu sunt erori</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>Nu sunt erori in contorizarea buclelor</t>
-  </si>
-  <si>
-    <t>Variabilele sunt declarate corepunzator.</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
@@ -480,9 +372,6 @@
   </si>
   <si>
     <t>Variabilei line (string) i se concatenau alte stringuri folosind + (se creea un nou string de fiecare data)</t>
-  </si>
-  <si>
-    <t>NU</t>
   </si>
   <si>
     <t>Nu exista nicio functionalitate care sa specifice faptul ca piesele si produsele finite sunt afisate in vreun fel in aplicatie (nici metoda de afisare: lista/tabel/etc).</t>
@@ -1116,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1173,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,13 +1181,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -1306,11 +1191,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1318,26 +1203,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -1345,11 +1222,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1364,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1379,7 +1256,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -1394,7 +1271,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1439,7 +1316,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1463,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,52 +1457,36 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1633,11 +1494,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1646,25 +1507,21 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -1672,11 +1529,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1685,38 +1542,30 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
@@ -1778,7 +1627,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1802,8 +1651,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3">
         <v>235</v>
@@ -1921,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1936,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1950,26 +1799,18 @@
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1977,11 +1818,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,104 +1830,72 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="26" t="s">
-        <v>93</v>
-      </c>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="27" t="s">
-        <v>148</v>
-      </c>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -2166,7 +1975,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E32"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2063,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3">
         <v>235</v>
@@ -2303,16 +2112,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2321,16 +2130,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2339,16 +2148,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2357,16 +2166,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2375,16 +2184,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2393,16 +2202,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -2411,16 +2220,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -2429,16 +2238,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -2447,16 +2256,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -2465,16 +2274,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -2483,16 +2292,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="105" x14ac:dyDescent="0.25">
@@ -2501,16 +2310,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2605,7 +2414,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="40" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
